--- a/Documentatie/Testrapporten/2013-03-06 Testrapport 1.xlsx
+++ b/Documentatie/Testrapporten/2013-03-06 Testrapport 1.xlsx
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Blad1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -144,16 +145,29 @@
 Open</t>
   </si>
   <si>
-    <t>Dicht
-Dicht</t>
-  </si>
-  <si>
     <t>Kun je de pagina zonder in te loggen benaderen?
 Pagina bekijken
 Categorie selectie
 Product zonder omschrijving bekijken</t>
   </si>
   <si>
+    <t>Dicht
+Open</t>
+  </si>
+  <si>
+    <t>Dicht
+Open</t>
+  </si>
+  <si>
+    <t>Dicht
+Open (crash)
+Dicht</t>
+  </si>
+  <si>
+    <t>Dicht
+Dicht</t>
+  </si>
+  <si>
     <t>Open
 Open
 Open
@@ -161,25 +175,6 @@
   </si>
   <si>
     <t>Dicht
-Dicht
-Dicht</t>
-  </si>
-  <si>
-    <t>Dicht
-Open</t>
-  </si>
-  <si>
-    <t>Dicht
-Open</t>
-  </si>
-  <si>
-    <t>Dicht
-Open (crash)
-Dicht</t>
-  </si>
-  <si>
-    <t>Dicht
-Open
 Dicht
 Dicht</t>
   </si>
@@ -190,6 +185,12 @@
 Open
 Dicht
 Open</t>
+  </si>
+  <si>
+    <t>Dicht
+Open
+Dicht
+Dicht</t>
   </si>
 </sst>
 </file>
@@ -575,8 +576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,8 +643,8 @@
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1">
       <c r="A4" s="1"/>
@@ -662,7 +664,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1">
+    <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1">
         <v>41339</v>
       </c>
@@ -673,12 +675,12 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="45">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="1">
         <v>41339</v>
       </c>
@@ -689,12 +691,12 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="105">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="90" customHeight="1">
       <c r="A7" s="1">
         <v>41339</v>
       </c>
@@ -702,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -714,7 +716,7 @@
         <v>41349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="90" customHeight="1">
       <c r="A8" s="1">
         <v>41339</v>
       </c>
@@ -725,12 +727,12 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="225" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="180" customHeight="1">
       <c r="A9" s="1">
         <v>41339</v>
       </c>
@@ -741,9 +743,9 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="5">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="1">
@@ -763,10 +765,10 @@
       <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="135" customHeight="1">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="120" customHeight="1">
       <c r="A11" s="1">
         <v>41339</v>
       </c>
@@ -777,10 +779,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="45">
       <c r="A12" s="1">
@@ -793,16 +795,16 @@
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>41349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="150" customHeight="1">
+    <row r="13" spans="1:6" ht="120" customHeight="1">
       <c r="A13" s="1">
         <v>41339</v>
       </c>
@@ -813,9 +815,9 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="5">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="1">
@@ -835,10 +837,10 @@
       <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="135" customHeight="1">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="120" customHeight="1">
       <c r="A15" s="1">
         <v>41339</v>
       </c>
@@ -849,7 +851,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -869,7 +871,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -880,7 +882,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
